--- a/biology/Botanique/Allium_lineare/Allium_lineare.xlsx
+++ b/biology/Botanique/Allium_lineare/Allium_lineare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium lineare est une espèce de plantes à fleurs de la famille des Amaryllidaceae. C'est un oignon sauvage eurasien dont l'aire de répartition s'étend de la France à la Mongolie[1],[2],[3],[4],[5],[6].
-Allium lineare a un ou deux bulbes mesurant chacun de 0,5 à 1,5 cm de diamètre ; tunique brun grisâtre, réticulée&lt;[1]. La hampe florale mesure jusqu'à 60 cm de haut. Les feuilles sont plates, plus courtes que la hampe, très étroites, mesurant rarement plus de 5 mm de diamètre. les fleurs sont rouges[1],[7],[8],[9].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium lineare est une espèce de plantes à fleurs de la famille des Amaryllidaceae. C'est un oignon sauvage eurasien dont l'aire de répartition s'étend de la France à la Mongolie.
+Allium lineare a un ou deux bulbes mesurant chacun de 0,5 à 1,5 cm de diamètre ; tunique brun grisâtre, réticulée&lt;. La hampe florale mesure jusqu'à 60 cm de haut. Les feuilles sont plates, plus courtes que la hampe, très étroites, mesurant rarement plus de 5 mm de diamètre. les fleurs sont rouges.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allium lineare var. maackii Maxim., maintenant appelé Allium maackii (Maxim.) Prokh. ex Kom.
 Allium lineare var. strictum (Schrad.) Trevir., maintenant appelé Allium strictum Schrad.</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ail linéaire, ail raide, ail strict</t>
         </is>
